--- a/output/ejecucion_2/gridsearch_results/base_19_21/base_19_21_results_gs_rf_o.xlsx
+++ b/output/ejecucion_2/gridsearch_results/base_19_21/base_19_21_results_gs_rf_o.xlsx
@@ -561,16 +561,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.910368394851685</v>
+        <v>1.74188117980957</v>
       </c>
       <c r="C2">
-        <v>0.8443460337030058</v>
+        <v>0.2440721511410801</v>
       </c>
       <c r="D2">
-        <v>1.243571376800537</v>
+        <v>1.109520959854126</v>
       </c>
       <c r="E2">
-        <v>0.527409487748802</v>
+        <v>0.6129343772471978</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -614,16 +614,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.854277944564819</v>
+        <v>5.433175420761108</v>
       </c>
       <c r="C3">
-        <v>0.3286129848025772</v>
+        <v>0.9878626647766702</v>
       </c>
       <c r="D3">
-        <v>0.5700223445892334</v>
+        <v>1.371027421951294</v>
       </c>
       <c r="E3">
-        <v>0.2994838836120337</v>
+        <v>0.93864668872517</v>
       </c>
       <c r="F3">
         <v>10</v>
@@ -667,16 +667,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.07425384521484</v>
+        <v>22.04511427879333</v>
       </c>
       <c r="C4">
-        <v>0.3107906635320973</v>
+        <v>0.7415925252317709</v>
       </c>
       <c r="D4">
-        <v>1.018032646179199</v>
+        <v>1.851686477661133</v>
       </c>
       <c r="E4">
-        <v>0.5627214709139921</v>
+        <v>1.010982034413148</v>
       </c>
       <c r="F4">
         <v>10</v>
@@ -720,16 +720,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.708163356781006</v>
+        <v>9.03871660232544</v>
       </c>
       <c r="C5">
-        <v>2.104274430751806</v>
+        <v>3.037828404511758</v>
       </c>
       <c r="D5">
-        <v>1.677387762069702</v>
+        <v>2.481471109390259</v>
       </c>
       <c r="E5">
-        <v>0.9667945476224892</v>
+        <v>0.8307317912184298</v>
       </c>
       <c r="F5">
         <v>10</v>
@@ -773,16 +773,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.146391820907593</v>
+        <v>13.97461543083191</v>
       </c>
       <c r="C6">
-        <v>0.8756845689988652</v>
+        <v>0.9107620964106254</v>
       </c>
       <c r="D6">
-        <v>1.386038446426392</v>
+        <v>2.955938196182251</v>
       </c>
       <c r="E6">
-        <v>0.7867600618281098</v>
+        <v>0.4743688844302197</v>
       </c>
       <c r="F6">
         <v>10</v>
@@ -826,16 +826,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.49259696006775</v>
+        <v>29.76733808517456</v>
       </c>
       <c r="C7">
-        <v>0.9228159262388982</v>
+        <v>0.6321730599604829</v>
       </c>
       <c r="D7">
-        <v>2.096934127807617</v>
+        <v>3.060250616073608</v>
       </c>
       <c r="E7">
-        <v>0.6043958692986149</v>
+        <v>0.4202301393424704</v>
       </c>
       <c r="F7">
         <v>10</v>
@@ -879,16 +879,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5.694481754302979</v>
+        <v>11.5559157371521</v>
       </c>
       <c r="C8">
-        <v>0.7702195246910234</v>
+        <v>1.510323613078597</v>
       </c>
       <c r="D8">
-        <v>1.895455312728882</v>
+        <v>3.142440462112427</v>
       </c>
       <c r="E8">
-        <v>0.5323146700137285</v>
+        <v>0.8946878940267037</v>
       </c>
       <c r="F8">
         <v>10</v>
@@ -932,16 +932,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.073656940460205</v>
+        <v>18.01054859161377</v>
       </c>
       <c r="C9">
-        <v>1.028276233960446</v>
+        <v>0.9285234024509826</v>
       </c>
       <c r="D9">
-        <v>1.901127147674561</v>
+        <v>2.729102754592895</v>
       </c>
       <c r="E9">
-        <v>1.309055253409146</v>
+        <v>1.101936269520006</v>
       </c>
       <c r="F9">
         <v>10</v>
@@ -985,16 +985,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.6165575504303</v>
+        <v>35.86424627304077</v>
       </c>
       <c r="C10">
-        <v>1.761190473951887</v>
+        <v>1.000111588830088</v>
       </c>
       <c r="D10">
-        <v>2.190840530395508</v>
+        <v>3.117302989959717</v>
       </c>
       <c r="E10">
-        <v>1.075367738216843</v>
+        <v>0.2987621202116055</v>
       </c>
       <c r="F10">
         <v>10</v>
@@ -1038,16 +1038,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.911559247970581</v>
+        <v>11.67780508995056</v>
       </c>
       <c r="C11">
-        <v>0.8246353548516071</v>
+        <v>1.227606526445959</v>
       </c>
       <c r="D11">
-        <v>2.372993755340576</v>
+        <v>3.736484432220459</v>
       </c>
       <c r="E11">
-        <v>1.118971793612186</v>
+        <v>1.030613836771753</v>
       </c>
       <c r="F11">
         <v>20</v>
@@ -1091,16 +1091,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.93156361579895</v>
+        <v>14.16149301528931</v>
       </c>
       <c r="C12">
-        <v>0.939434558426682</v>
+        <v>0.4880721816891497</v>
       </c>
       <c r="D12">
-        <v>2.634714412689209</v>
+        <v>2.880640125274658</v>
       </c>
       <c r="E12">
-        <v>0.3758029578370247</v>
+        <v>0.437461982406083</v>
       </c>
       <c r="F12">
         <v>20</v>
@@ -1144,16 +1144,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.20511598587036</v>
+        <v>30.18902978897095</v>
       </c>
       <c r="C13">
-        <v>0.8777867667969693</v>
+        <v>0.3417034119293771</v>
       </c>
       <c r="D13">
-        <v>2.949334573745728</v>
+        <v>3.350243520736695</v>
       </c>
       <c r="E13">
-        <v>1.119098275049523</v>
+        <v>0.4045459727194254</v>
       </c>
       <c r="F13">
         <v>20</v>
@@ -1197,16 +1197,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.720008468627929</v>
+        <v>13.00817885398865</v>
       </c>
       <c r="C14">
-        <v>1.256343971633772</v>
+        <v>1.738511712487232</v>
       </c>
       <c r="D14">
-        <v>2.106734323501587</v>
+        <v>2.963673734664917</v>
       </c>
       <c r="E14">
-        <v>0.9818882211320807</v>
+        <v>0.2465073782397519</v>
       </c>
       <c r="F14">
         <v>20</v>
@@ -1250,16 +1250,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.66535658836365</v>
+        <v>18.91166830062866</v>
       </c>
       <c r="C15">
-        <v>0.6108538380635351</v>
+        <v>0.8693668058921439</v>
       </c>
       <c r="D15">
-        <v>2.104071426391601</v>
+        <v>3.771845388412475</v>
       </c>
       <c r="E15">
-        <v>1.49815703184828</v>
+        <v>0.674830138435714</v>
       </c>
       <c r="F15">
         <v>20</v>
@@ -1303,16 +1303,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.93310613632202</v>
+        <v>41.5986686706543</v>
       </c>
       <c r="C16">
-        <v>1.046229894099518</v>
+        <v>0.7144269911726299</v>
       </c>
       <c r="D16">
-        <v>2.658982229232788</v>
+        <v>3.660331678390503</v>
       </c>
       <c r="E16">
-        <v>1.002606429812341</v>
+        <v>0.3535372275954611</v>
       </c>
       <c r="F16">
         <v>20</v>
@@ -1356,16 +1356,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.64047617912292</v>
+        <v>15.84233512878418</v>
       </c>
       <c r="C17">
-        <v>0.6877574589933648</v>
+        <v>2.418279270738087</v>
       </c>
       <c r="D17">
-        <v>3.020366954803467</v>
+        <v>3.59029426574707</v>
       </c>
       <c r="E17">
-        <v>1.164588851014416</v>
+        <v>0.8802751680040016</v>
       </c>
       <c r="F17">
         <v>20</v>
@@ -1409,16 +1409,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.20158596038818</v>
+        <v>25.48354482650757</v>
       </c>
       <c r="C18">
-        <v>1.736812847975246</v>
+        <v>0.4870085269309492</v>
       </c>
       <c r="D18">
-        <v>3.539003181457519</v>
+        <v>3.980317449569702</v>
       </c>
       <c r="E18">
-        <v>0.9394825115861031</v>
+        <v>0.546072613685715</v>
       </c>
       <c r="F18">
         <v>20</v>
@@ -1462,16 +1462,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.66630525588989</v>
+        <v>49.97938289642334</v>
       </c>
       <c r="C19">
-        <v>1.047753950158009</v>
+        <v>1.532017390891486</v>
       </c>
       <c r="D19">
-        <v>2.853825378417969</v>
+        <v>3.321835088729858</v>
       </c>
       <c r="E19">
-        <v>0.4894583621607881</v>
+        <v>0.7442837751744574</v>
       </c>
       <c r="F19">
         <v>20</v>
@@ -1515,16 +1515,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.129176378250122</v>
+        <v>12.50766625404358</v>
       </c>
       <c r="C20">
-        <v>2.029906318971109</v>
+        <v>1.226048617826029</v>
       </c>
       <c r="D20">
-        <v>3.050781011581421</v>
+        <v>3.815892314910889</v>
       </c>
       <c r="E20">
-        <v>0.8479298062036179</v>
+        <v>1.432441079798374</v>
       </c>
       <c r="F20">
         <v>30</v>
@@ -1568,16 +1568,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>11.08313627243042</v>
+        <v>17.32989392280579</v>
       </c>
       <c r="C21">
-        <v>0.8334124088287749</v>
+        <v>1.641236899595345</v>
       </c>
       <c r="D21">
-        <v>1.322801923751831</v>
+        <v>2.405587768554688</v>
       </c>
       <c r="E21">
-        <v>1.036113242910156</v>
+        <v>1.467307274124624</v>
       </c>
       <c r="F21">
         <v>30</v>
@@ -1621,16 +1621,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.34860367774963</v>
+        <v>30.54291367530823</v>
       </c>
       <c r="C22">
-        <v>1.326689387714745</v>
+        <v>1.822437612130616</v>
       </c>
       <c r="D22">
-        <v>2.723548412322998</v>
+        <v>3.776204633712768</v>
       </c>
       <c r="E22">
-        <v>0.6387986269605099</v>
+        <v>1.459516398404708</v>
       </c>
       <c r="F22">
         <v>30</v>
@@ -1674,16 +1674,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.047923040390015</v>
+        <v>12.405126953125</v>
       </c>
       <c r="C23">
-        <v>1.680798138428197</v>
+        <v>1.766386977308521</v>
       </c>
       <c r="D23">
-        <v>3.147750377655029</v>
+        <v>3.490204286575318</v>
       </c>
       <c r="E23">
-        <v>0.4097792067532116</v>
+        <v>0.4733089661229087</v>
       </c>
       <c r="F23">
         <v>30</v>
@@ -1727,16 +1727,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.24630703926086</v>
+        <v>19.6715301990509</v>
       </c>
       <c r="C24">
-        <v>0.4259455432438236</v>
+        <v>1.321562014448006</v>
       </c>
       <c r="D24">
-        <v>2.912091064453125</v>
+        <v>3.564344167709351</v>
       </c>
       <c r="E24">
-        <v>0.2655559145623572</v>
+        <v>1.196740329332269</v>
       </c>
       <c r="F24">
         <v>30</v>
@@ -1780,16 +1780,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.92606592178345</v>
+        <v>43.62572221755981</v>
       </c>
       <c r="C25">
-        <v>0.9274361183752912</v>
+        <v>0.5788972056775087</v>
       </c>
       <c r="D25">
-        <v>2.458119821548462</v>
+        <v>3.035400009155274</v>
       </c>
       <c r="E25">
-        <v>1.074613829189019</v>
+        <v>0.754825825964752</v>
       </c>
       <c r="F25">
         <v>30</v>
@@ -1833,16 +1833,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>11.43585352897644</v>
+        <v>15.25645413398743</v>
       </c>
       <c r="C26">
-        <v>2.94891751632254</v>
+        <v>3.997214130490339</v>
       </c>
       <c r="D26">
-        <v>2.657483053207398</v>
+        <v>3.50924072265625</v>
       </c>
       <c r="E26">
-        <v>0.7832848834710736</v>
+        <v>1.214012605764583</v>
       </c>
       <c r="F26">
         <v>30</v>
@@ -1886,16 +1886,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>16.13464093208313</v>
+        <v>25.67168936729431</v>
       </c>
       <c r="C27">
-        <v>0.6319568864767282</v>
+        <v>0.6843972376353415</v>
       </c>
       <c r="D27">
-        <v>2.85900936126709</v>
+        <v>3.685988187789917</v>
       </c>
       <c r="E27">
-        <v>0.351518977530927</v>
+        <v>0.4559850406615804</v>
       </c>
       <c r="F27">
         <v>30</v>
@@ -1939,16 +1939,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>26.00058302879334</v>
+        <v>40.75008549690246</v>
       </c>
       <c r="C28">
-        <v>1.847506258844826</v>
+        <v>5.528518091853997</v>
       </c>
       <c r="D28">
-        <v>1.438260316848755</v>
+        <v>1.811527442932129</v>
       </c>
       <c r="E28">
-        <v>0.9076499228161484</v>
+        <v>1.15893289767609</v>
       </c>
       <c r="F28">
         <v>30</v>
